--- a/DataSheet/Mars.xlsx
+++ b/DataSheet/Mars.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyotimadan/Documents/Projects/CSharpProject/Mars/DataSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1615228D-67D0-6845-A75D-5359643C2C0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E61AA3-42C1-5B42-B903-D9C6C820178E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="2" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
+    <sheet name="ShareSkillTestData" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageListingsTestData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Password</t>
   </si>
@@ -34,6 +36,135 @@
   </si>
   <si>
     <t>test.tester@gmail.com</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+  </si>
+  <si>
+    <t>SkillExchangeTag</t>
+  </si>
+  <si>
+    <t>CreditServiceCharge</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Skill1</t>
+  </si>
+  <si>
+    <t>Test Skill1 Sharing</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Tag1</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Tag2</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>EditTitle</t>
+  </si>
+  <si>
+    <t>EditDescription</t>
+  </si>
+  <si>
+    <t>EditCategory</t>
+  </si>
+  <si>
+    <t>EditTags</t>
+  </si>
+  <si>
+    <t>EditServiceType</t>
+  </si>
+  <si>
+    <t>EditLocationType</t>
+  </si>
+  <si>
+    <t>EditSkillTrade</t>
+  </si>
+  <si>
+    <t>EditSkillExchangeTag</t>
+  </si>
+  <si>
+    <t>EditCreditServiceCharge</t>
+  </si>
+  <si>
+    <t>EditActive</t>
+  </si>
+  <si>
+    <t>DeleteMessage</t>
+  </si>
+  <si>
+    <t>Skill2</t>
+  </si>
+  <si>
+    <t>Test Skill2 Sharing</t>
+  </si>
+  <si>
+    <t>Fun &amp; Lifestyle</t>
+  </si>
+  <si>
+    <t>Tag3</t>
+  </si>
+  <si>
+    <t>Hourly basis service</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>Skill-exchange</t>
+  </si>
+  <si>
+    <t>Tag4</t>
+  </si>
+  <si>
+    <t>has been deleted</t>
+  </si>
+  <si>
+    <t>AddDaysInCurrentDateToStart</t>
+  </si>
+  <si>
+    <t>AddDaysInCurrentDateToEnd</t>
+  </si>
+  <si>
+    <t>EditDaysInCurrentDateToStart</t>
+  </si>
+  <si>
+    <t>EditDaysInCurrentDateToEnd</t>
   </si>
 </sst>
 </file>
@@ -405,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8977337-D921-AC46-8E72-5A50572B2175}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -437,4 +568,221 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DEC66E-F359-7849-9BD4-2D798B9625ED}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290D7D83-3F7A-424F-9F63-957F1296DE9C}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataSheet/Mars.xlsx
+++ b/DataSheet/Mars.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyotimadan/Documents/Projects/CSharpProject/Mars/DataSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E61AA3-42C1-5B42-B903-D9C6C820178E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EEE7A2-7CFB-6349-B5F7-E00027488965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="2" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="3" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="ShareSkillTestData" sheetId="2" r:id="rId2"/>
     <sheet name="ManageListingsTestData" sheetId="3" r:id="rId3"/>
+    <sheet name="ManageRequestsTestData" sheetId="9" r:id="rId4"/>
+    <sheet name="ProfileTestData" sheetId="4" r:id="rId5"/>
+    <sheet name="SearchTestData" sheetId="5" r:id="rId6"/>
+    <sheet name="ChatTestData" sheetId="6" r:id="rId7"/>
+    <sheet name="ServiceDetailTestData" sheetId="7" r:id="rId8"/>
+    <sheet name="NotificationTestData" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
   <si>
     <t>Password</t>
   </si>
@@ -35,9 +41,6 @@
     <t>EmailAddress</t>
   </si>
   <si>
-    <t>test.tester@gmail.com</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -165,6 +168,204 @@
   </si>
   <si>
     <t>EditDaysInCurrentDateToEnd</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>CurrentPassword</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>Password Changed Successfully</t>
+  </si>
+  <si>
+    <t>NewConfirmPassword</t>
+  </si>
+  <si>
+    <t>Registration successful</t>
+  </si>
+  <si>
+    <t>RegistrationMessage</t>
+  </si>
+  <si>
+    <t>PasswordChangeMessage</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>mars.test@gmail.com</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>EarnTarget</t>
+  </si>
+  <si>
+    <t>AvailabilityMessage</t>
+  </si>
+  <si>
+    <t>HoursMessage</t>
+  </si>
+  <si>
+    <t>EarnTargetMessage</t>
+  </si>
+  <si>
+    <t>Availability updated</t>
+  </si>
+  <si>
+    <t>Hours updated</t>
+  </si>
+  <si>
+    <t>Earn Target updated</t>
+  </si>
+  <si>
+    <t>Part Time</t>
+  </si>
+  <si>
+    <t>More than 30hours a week</t>
+  </si>
+  <si>
+    <t>More than $1000 per month</t>
+  </si>
+  <si>
+    <t>DescriptionMessage</t>
+  </si>
+  <si>
+    <t>Description has been saved successfully</t>
+  </si>
+  <si>
+    <t>I like playing drums</t>
+  </si>
+  <si>
+    <t>ProfileDescription</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>SkillMessage</t>
+  </si>
+  <si>
+    <t>Drums</t>
+  </si>
+  <si>
+    <t>Drums has been added to your skills</t>
+  </si>
+  <si>
+    <t>LanguageMessage</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>English has been added to your languages</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>CertifiedFrom</t>
+  </si>
+  <si>
+    <t>CertificateMessage</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>adobe</t>
+  </si>
+  <si>
+    <t>abc has been added to your certification</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>EducationMessage</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>Education has been added</t>
+  </si>
+  <si>
+    <t>SearchSkill</t>
+  </si>
+  <si>
+    <t>ChatMessage</t>
+  </si>
+  <si>
+    <t>Hello I want to exchange my skill</t>
+  </si>
+  <si>
+    <t>MessageToSeller</t>
+  </si>
+  <si>
+    <t>SentRequestMessage</t>
+  </si>
+  <si>
+    <t>Request sent</t>
+  </si>
+  <si>
+    <t>I am interested in your skill</t>
+  </si>
+  <si>
+    <t>Notification updated</t>
+  </si>
+  <si>
+    <t>NotificationMessage</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Declined</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>AcceptReceivedRequest</t>
+  </si>
+  <si>
+    <t>DeclineReceivedRequest</t>
+  </si>
+  <si>
+    <t>WithdrawSentRequest</t>
+  </si>
+  <si>
+    <t>CompleteSentRequest</t>
   </si>
 </sst>
 </file>
@@ -188,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +399,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,10 +422,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -534,39 +745,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8977337-D921-AC46-8E72-5A50572B2175}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
         <v>123123</v>
+      </c>
+      <c r="E2">
+        <v>123123</v>
+      </c>
+      <c r="F2">
+        <v>123123</v>
+      </c>
+      <c r="G2">
+        <v>123456</v>
+      </c>
+      <c r="H2">
+        <v>123456</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{09F17EF6-D06C-5344-BDBB-A69FF754C999}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{63D86528-1669-9E46-85EA-FAB337EA0D42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -574,9 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DEC66E-F359-7849-9BD4-2D798B9625ED}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -595,72 +858,72 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -679,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290D7D83-3F7A-424F-9F63-957F1296DE9C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,75 +965,75 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
       </c>
       <c r="I2">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -779,7 +1042,318 @@
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E98292-C7AA-0B49-8379-1D04C9675C65}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3722FA-74CF-BD4E-9CCF-CBC7308E1A3D}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABAFBA3-8E38-1348-967F-3A970261E0D5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1FE9BE-FF0B-804A-BEFE-01AF06A9AB3F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B58F33-06EC-A44B-8F98-DBAA495BC28A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DB0938-B6C7-D347-8077-95E3356780A2}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/Mars.xlsx
+++ b/DataSheet/Mars.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyotimadan/Documents/Projects/CSharpProject/Mars/DataSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EEE7A2-7CFB-6349-B5F7-E00027488965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452DBA3E-A3F8-9441-B2A5-1C83041BBC35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="3" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
+    <workbookView xWindow="300" yWindow="540" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
-    <sheet name="ShareSkillTestData" sheetId="2" r:id="rId2"/>
-    <sheet name="ManageListingsTestData" sheetId="3" r:id="rId3"/>
-    <sheet name="ManageRequestsTestData" sheetId="9" r:id="rId4"/>
-    <sheet name="ProfileTestData" sheetId="4" r:id="rId5"/>
-    <sheet name="SearchTestData" sheetId="5" r:id="rId6"/>
-    <sheet name="ChatTestData" sheetId="6" r:id="rId7"/>
-    <sheet name="ServiceDetailTestData" sheetId="7" r:id="rId8"/>
-    <sheet name="NotificationTestData" sheetId="8" r:id="rId9"/>
+    <sheet name="ChangePasswordTestData" sheetId="10" r:id="rId2"/>
+    <sheet name="ShareSkillTestData" sheetId="2" r:id="rId3"/>
+    <sheet name="ManageListingsTestData" sheetId="3" r:id="rId4"/>
+    <sheet name="ManageRequestsTestData" sheetId="9" r:id="rId5"/>
+    <sheet name="ProfileTestData" sheetId="4" r:id="rId6"/>
+    <sheet name="SearchTestData" sheetId="5" r:id="rId7"/>
+    <sheet name="ChatTestData" sheetId="6" r:id="rId8"/>
+    <sheet name="ServiceDetailTestData" sheetId="7" r:id="rId9"/>
+    <sheet name="NotificationTestData" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
   <si>
     <t>Password</t>
   </si>
@@ -366,6 +367,15 @@
   </si>
   <si>
     <t>CompleteSentRequest</t>
+  </si>
+  <si>
+    <t>test.tester@gmail.com</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Pwd</t>
   </si>
 </sst>
 </file>
@@ -745,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8977337-D921-AC46-8E72-5A50572B2175}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,13 +766,11 @@
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -779,22 +787,10 @@
         <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -810,20 +806,8 @@
       <c r="E2">
         <v>123123</v>
       </c>
-      <c r="F2">
-        <v>123123</v>
-      </c>
-      <c r="G2">
-        <v>123456</v>
-      </c>
-      <c r="H2">
-        <v>123456</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F2" t="s">
         <v>52</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +819,101 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DB0938-B6C7-D347-8077-95E3356780A2}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDD637B-99C7-7B42-BAE6-F88E174063E1}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>123123</v>
+      </c>
+      <c r="C2">
+        <v>123123</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2">
+        <v>123456</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{79E77408-E72F-0B43-82BC-84590347AD6B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DEC66E-F359-7849-9BD4-2D798B9625ED}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -938,7 +1016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290D7D83-3F7A-424F-9F63-957F1296DE9C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -1050,11 +1128,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E98292-C7AA-0B49-8379-1D04C9675C65}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1100,7 +1178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3722FA-74CF-BD4E-9CCF-CBC7308E1A3D}">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -1242,7 +1320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABAFBA3-8E38-1348-967F-3A970261E0D5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1270,7 +1348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1FE9BE-FF0B-804A-BEFE-01AF06A9AB3F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1298,7 +1376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B58F33-06EC-A44B-8F98-DBAA495BC28A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1331,32 +1409,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DB0938-B6C7-D347-8077-95E3356780A2}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DataSheet/Mars.xlsx
+++ b/DataSheet/Mars.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyotimadan/Documents/Projects/CSharpProject/Mars/DataSheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyotimadan/Documents/Projects/CSharpProject/Mars.Specflow/DataSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452DBA3E-A3F8-9441-B2A5-1C83041BBC35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752CAD86-53CA-8D41-A765-D9467C61884C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="540" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="4" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t>Password</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Skill1</t>
-  </si>
-  <si>
     <t>Test Skill1 Sharing</t>
   </si>
   <si>
@@ -376,6 +373,21 @@
   </si>
   <si>
     <t>Pwd</t>
+  </si>
+  <si>
+    <t>SellerName</t>
+  </si>
+  <si>
+    <t>Jyoti</t>
+  </si>
+  <si>
+    <t>Skill3</t>
+  </si>
+  <si>
+    <t>Skill4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisite: User has two Received Requests and one Sent Request and one Accepted Sent Request in the system </t>
   </si>
 </sst>
 </file>
@@ -772,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -784,21 +796,21 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D2">
         <v>123123</v>
@@ -807,7 +819,7 @@
         <v>123123</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -834,12 +846,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -851,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDD637B-99C7-7B42-BAE6-F88E174063E1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,27 +879,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>123123</v>
@@ -902,7 +914,7 @@
         <v>123456</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DEC66E-F359-7849-9BD4-2D798B9625ED}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -966,42 +980,42 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1021,7 +1035,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1043,69 +1057,69 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -1120,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1130,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E98292-C7AA-0B49-8379-1D04C9675C65}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,34 +1156,40 @@
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>105</v>
       </c>
-      <c r="D2" t="s">
-        <v>106</v>
+    </row>
+    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="E3" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1204,114 +1224,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
       <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
         <v>76</v>
       </c>
-      <c r="J2" t="s">
-        <v>77</v>
-      </c>
       <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s">
         <v>80</v>
       </c>
-      <c r="L2" t="s">
-        <v>81</v>
-      </c>
       <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" t="s">
         <v>85</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>86</v>
       </c>
-      <c r="O2" t="s">
-        <v>87</v>
-      </c>
       <c r="P2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" t="s">
         <v>92</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1325,7 +1345,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1335,12 +1355,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1350,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1FE9BE-FF0B-804A-BEFE-01AF06A9AB3F}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1361,14 +1381,20 @@
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>96</v>
+      <c r="B2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1392,18 +1418,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/Mars.xlsx
+++ b/DataSheet/Mars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyotimadan/Documents/Projects/CSharpProject/Mars.Specflow/DataSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752CAD86-53CA-8D41-A765-D9467C61884C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF8A0A2-ADB0-AD44-A021-AFF31B90F38B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="4" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="5" xr2:uid="{DF65A25B-7158-E041-B64A-E7FDC7345767}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
   <si>
     <t>Password</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Test Skill1 Sharing</t>
-  </si>
-  <si>
     <t>Business</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Skill2</t>
   </si>
   <si>
-    <t>Test Skill2 Sharing</t>
-  </si>
-  <si>
     <t>Fun &amp; Lifestyle</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>Tag4</t>
   </si>
   <si>
-    <t>has been deleted</t>
-  </si>
-  <si>
     <t>AddDaysInCurrentDateToStart</t>
   </si>
   <si>
@@ -219,21 +210,9 @@
     <t>AvailabilityMessage</t>
   </si>
   <si>
-    <t>HoursMessage</t>
-  </si>
-  <si>
-    <t>EarnTargetMessage</t>
-  </si>
-  <si>
     <t>Availability updated</t>
   </si>
   <si>
-    <t>Hours updated</t>
-  </si>
-  <si>
-    <t>Earn Target updated</t>
-  </si>
-  <si>
     <t>Part Time</t>
   </si>
   <si>
@@ -321,9 +300,6 @@
     <t>ChatMessage</t>
   </si>
   <si>
-    <t>Hello I want to exchange my skill</t>
-  </si>
-  <si>
     <t>MessageToSeller</t>
   </si>
   <si>
@@ -388,13 +364,25 @@
   </si>
   <si>
     <t xml:space="preserve">Prerequisite: User has two Received Requests and one Sent Request and one Accepted Sent Request in the system </t>
+  </si>
+  <si>
+    <t>Testing skill exchange</t>
+  </si>
+  <si>
+    <t>Test Skill3 Sharing</t>
+  </si>
+  <si>
+    <t>Test Skill4 Sharing</t>
+  </si>
+  <si>
+    <t>Skill3 has been deleted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -409,6 +397,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -444,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -452,6 +446,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -784,10 +779,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -796,21 +791,21 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>123123</v>
@@ -819,7 +814,7 @@
         <v>123123</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -846,12 +841,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -879,27 +874,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <v>123123</v>
@@ -914,7 +909,7 @@
         <v>123456</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +925,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -980,42 +975,42 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1035,7 +1030,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1052,74 +1047,74 @@
     <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -1133,8 +1128,8 @@
       <c r="L2">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
-        <v>39</v>
+      <c r="M2" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E98292-C7AA-0B49-8379-1D04C9675C65}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1161,35 +1156,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="E3" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1200,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3722FA-74CF-BD4E-9CCF-CBC7308E1A3D}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1211,127 +1206,113 @@
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
-        <v>65</v>
+      <c r="F2" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
         <v>79</v>
       </c>
-      <c r="L2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>84</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
         <v>85</v>
-      </c>
-      <c r="O2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R2" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1355,12 +1336,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1354,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,18 +1364,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1418,18 +1399,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
